--- a/xlsx/罗得岛州_intext.xlsx
+++ b/xlsx/罗得岛州_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>羅德島</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_罗得岛州</t>
+    <t>罗德岛</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_罗得岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Rhode_Island</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%C2%B7%E9%87%8C%E5%BE%B7</t>
   </si>
   <si>
-    <t>傑克·里德</t>
+    <t>杰克·里德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E7%88%BE%E7%99%BB%C2%B7%E6%87%B7%E7%89%B9%E8%B1%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>謝爾登·懷特豪斯</t>
+    <t>谢尔登·怀特豪斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -191,19 +191,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國東北部</t>
+    <t>美国东北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國獨立革命</t>
+    <t>美国独立革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B4%9B%E5%A8%81%E9%A0%93%E6%96%AF_(%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E)</t>
   </si>
   <si>
-    <t>普洛威頓斯 (羅德島州)</t>
+    <t>普洛威顿斯 (罗德岛州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E7%89%B9%E5%8E%BF_(%E7%BD%97%E5%BE%97%E5%B2%9B%E5%B7%9E)</t>
@@ -227,25 +227,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%B8%A3_(%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E)</t>
   </si>
   <si>
-    <t>華盛頓縣 (羅德島州)</t>
+    <t>华盛顿县 (罗德岛州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E6%96%AF%E6%89%98%E7%B8%A3_(%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布里斯托縣 (羅德島州)</t>
+    <t>布里斯托县 (罗德岛州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%B3%A2%E7%89%B9%E7%B8%A3</t>
   </si>
   <si>
-    <t>紐波特縣</t>
+    <t>纽波特县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%8E%E5%A5%88%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>艾奎奈克島</t>
+    <t>艾奎奈克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E6%B3%A2%E7%89%B9_(%E7%BD%97%E5%BE%97%E5%B2%9B%E5%B7%9E)</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>奴隸制度</t>
+    <t>奴隶制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%8A%95</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%8A%AC%E7%89%B9%E9%87%8C</t>
@@ -359,25 +359,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E4%BA%BA</t>
   </si>
   <si>
-    <t>義大利人</t>
+    <t>义大利人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>愛爾蘭人</t>
+    <t>爱尔兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>英國人</t>
+    <t>英国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>法國人</t>
+    <t>法国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E4%BA%BA</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99%E5%BE%92</t>
@@ -413,25 +413,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>長老教會</t>
+    <t>长老教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%B3%A2%E7%89%B9_(%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紐波特 (羅德島州)</t>
+    <t>纽波特 (罗德岛州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅德島大學</t>
+    <t>罗德岛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>羅德島學院</t>
+    <t>罗德岛学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E5%A4%A7%E5%AD%A6</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E8%A8%AD%E8%A8%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>羅德島設計學院</t>
+    <t>罗德岛设计学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E7%94%9F%E5%A8%81%E7%88%BE%E5%A3%AB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>強生威爾士大學</t>
+    <t>强生威尔士大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B4%9B%E5%A8%81%E9%A1%BF%E6%96%AF%E5%AD%A6%E9%99%A2</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%88%BE%E7%93%A6%E7%91%9E%E9%87%91%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>沙爾瓦瑞金納大學</t>
+    <t>沙尔瓦瑞金纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%8E%B1%E6%81%A9%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
@@ -473,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%82%91%E5%A8%81%E5%BB%89%E5%A7%86%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅傑威廉姆斯大學</t>
+    <t>罗杰威廉姆斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>新英格蘭理工學院</t>
+    <t>新英格兰理工学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Portsmouth_Abbey_School</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%B4%85%E8%A5%AA</t>
   </si>
   <si>
-    <t>波士頓紅襪</t>
+    <t>波士顿红袜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA</t>
@@ -515,25 +515,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%C2%B7%E6%A0%BC%E6%9E%97%E7%B4%80%E5%BF%B5%E5%B7%9E%E7%AB%8B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>西奧多·弗朗西斯·格林紀念州立機場</t>
+    <t>西奥多·弗朗西斯·格林纪念州立机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/95%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>95號州際公路</t>
+    <t>95号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%97%E5%B3%B6%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅得島大學</t>
+    <t>罗得岛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%88%BE%E7%93%A6%C2%B7%E7%91%9E%E9%87%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>沙爾瓦·瑞金學院</t>
+    <t>沙尔瓦·瑞金学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E6%96%AF%E6%89%98%E5%B0%94%E5%8E%BF_(%E7%BD%97%E5%BE%97%E5%B2%9B%E5%B7%9E)</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E7%B4%A2%E5%9F%BA%E7%89%B9_(%E7%BE%85%E5%BE%97%E5%B3%B6%E5%B7%9E)</t>
   </si>
   <si>
-    <t>文索基特 (羅得島州)</t>
+    <t>文索基特 (罗得岛州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -737,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -815,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -899,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -911,19 +911,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -941,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -953,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -965,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -977,25 +977,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1025,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1043,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1055,13 +1055,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
